--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CFC9058-A55D-EE41-B054-D99720C61113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFD1B0A-0966-3E48-9F47-88FF4A2D3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1460" yWindow="-18180" windowWidth="28040" windowHeight="17440" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
+    <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>HW1</t>
   </si>
@@ -75,13 +76,22 @@
   </si>
   <si>
     <t>%</t>
+  </si>
+  <si>
+    <t>HW5 [opt]</t>
+  </si>
+  <si>
+    <t>Due</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="168" formatCode="0.0000"/>
+  </numFmts>
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -89,13 +99,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -107,10 +148,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -120,9 +164,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="4">
+    <cellStyle name="Good" xfId="2" builtinId="26"/>
+    <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -434,15 +493,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
-  <dimension ref="B2:G20"/>
+  <dimension ref="A2:G20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.83203125" style="7"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
@@ -453,93 +518,151 @@
         <v>12</v>
       </c>
     </row>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="8">
+        <v>44971</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>0</v>
+      </c>
+      <c r="C3" s="4">
+        <v>83.75</v>
+      </c>
+      <c r="D3" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="E3" s="5">
+        <f>C3/D3</f>
+        <v>1.0947712418300655</v>
       </c>
       <c r="F3">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B4" t="s">
+      <c r="G3" s="6">
+        <f>E3*F3</f>
+        <v>0.95792483660130734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="8">
+        <v>44985</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>1</v>
       </c>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
       <c r="F4">
         <v>0.875</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="8">
+        <v>45000</v>
+      </c>
       <c r="B5" t="s">
         <v>2</v>
       </c>
+      <c r="C5" s="4"/>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
       <c r="F5">
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="8">
+        <v>45020</v>
+      </c>
       <c r="B6" t="s">
         <v>3</v>
       </c>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
       <c r="F6">
         <v>0.875</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F7">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>45040</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F8">
         <v>0.35</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="8">
+        <v>44988</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10">
+        <v>0.25</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="8">
+        <v>45014</v>
+      </c>
+      <c r="B12" t="s">
         <v>4</v>
       </c>
-      <c r="F9">
+      <c r="F12">
         <v>0.15</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>45033</v>
+      </c>
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="F10">
+      <c r="F13">
         <v>0.15</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B11" t="s">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="8">
+        <v>45042</v>
+      </c>
+      <c r="B14" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="2" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="1"/>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F12" s="3">
+      <c r="G14" s="1"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F15" s="3">
         <v>0.3</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G15" s="1">
         <v>0.3</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B14" t="s">
-        <v>6</v>
-      </c>
-      <c r="F14">
-        <v>0.25</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFD1B0A-0966-3E48-9F47-88FF4A2D3B58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645D2D00-B85C-5C43-8CE5-563380136DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
+    <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>HW1</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Part (PollEv)</t>
   </si>
   <si>
-    <t>Proj3 Extra</t>
-  </si>
-  <si>
     <t>??</t>
   </si>
   <si>
@@ -82,6 +79,54 @@
   </si>
   <si>
     <t>Due</t>
+  </si>
+  <si>
+    <t>37/37 coding</t>
+  </si>
+  <si>
+    <t>Avail</t>
+  </si>
+  <si>
+    <t>+3 points to final grade for winning team</t>
+  </si>
+  <si>
+    <t>+10 points to lowest proj score for participation</t>
+  </si>
+  <si>
+    <t>Weighted Val</t>
+  </si>
+  <si>
+    <t>Max Dec Val</t>
+  </si>
+  <si>
+    <t>Anthony, Prithvi Friday @ ??pm</t>
+  </si>
+  <si>
+    <t>Anthony, Prithvi</t>
+  </si>
+  <si>
+    <t>SHORT TIME</t>
+  </si>
+  <si>
+    <t>Proj3 [opt]</t>
+  </si>
+  <si>
+    <t>March Madness [opt]</t>
+  </si>
+  <si>
+    <t>(2) to replace the lowest homework or project grade if this helps more than the extra credit.1 Both of these optional assignments will be graded like all other assignments. When submitted, whichever yields the best final grade.</t>
+  </si>
+  <si>
+    <t>(1) as extra credit and for learning, as these assignments would be in the curriculum if this class had a lab component (i.e., to get the most out of the class, they are worth doing)  or</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Optional assignments can be done </t>
+  </si>
+  <si>
+    <t>could be total point summation</t>
+  </si>
+  <si>
+    <t>40/44 written</t>
   </si>
 </sst>
 </file>
@@ -89,9 +134,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="168" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -120,8 +165,23 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -138,6 +198,11 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -148,13 +213,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -167,7 +233,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -176,8 +242,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="5">
+    <cellStyle name="Bad" xfId="4" builtinId="27"/>
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -493,198 +571,301 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
-  <dimension ref="A2:G20"/>
+  <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="7"/>
+    <col min="1" max="1" width="7.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A3" s="12">
+        <v>44957</v>
+      </c>
+      <c r="B3" s="12">
+        <v>44971</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>83.75</v>
+      </c>
+      <c r="E3" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="F3" s="5">
+        <f>D3/E3</f>
+        <v>1.0947712418300655</v>
+      </c>
+      <c r="G3">
+        <v>0.875</v>
+      </c>
+      <c r="H3" s="6">
+        <f>F3*G3</f>
+        <v>0.95792483660130734</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A4" s="12">
+        <v>44971</v>
+      </c>
+      <c r="B4" s="12">
+        <v>44985</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>77</v>
+      </c>
+      <c r="E4" s="4">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4/E4</f>
+        <v>0.95061728395061729</v>
+      </c>
+      <c r="G4">
+        <v>0.875</v>
+      </c>
+      <c r="H4" s="6">
+        <f>F4*G4</f>
+        <v>0.83179012345679015</v>
+      </c>
+      <c r="J4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A3" s="8">
-        <v>44971</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4">
-        <v>83.75</v>
-      </c>
-      <c r="D3" s="4">
-        <v>76.5</v>
-      </c>
-      <c r="E3" s="5">
-        <f>C3/D3</f>
-        <v>1.0947712418300655</v>
-      </c>
-      <c r="F3">
-        <v>0.875</v>
-      </c>
-      <c r="G3" s="6">
-        <f>E3*F3</f>
-        <v>0.95792483660130734</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A4" s="8">
-        <v>44985</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4">
-        <v>0.875</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="8">
-        <v>45000</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="K4" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="M4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A5" s="13">
+        <v>44997</v>
+      </c>
+      <c r="B5" s="8">
+        <v>45012</v>
+      </c>
+      <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
-      <c r="F5">
+      <c r="F5" s="4"/>
+      <c r="G5">
         <v>0.875</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="8">
+        <v>45013</v>
+      </c>
+      <c r="B6" s="8">
         <v>45020</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="4"/>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
-      <c r="F6">
+      <c r="F6" s="4"/>
+      <c r="G6">
         <v>0.875</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="J6" s="15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
+        <v>45027</v>
+      </c>
+      <c r="B7" s="8">
         <v>45040</v>
       </c>
-      <c r="B7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4"/>
+      <c r="C7" t="s">
+        <v>12</v>
+      </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F8">
+      <c r="F7" s="4"/>
+      <c r="I7" s="6">
+        <f>SUM(H3:H7)</f>
+        <v>1.7897149600580975</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G8">
         <v>0.35</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <v>0.35</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="8">
-        <v>44988</v>
-      </c>
-      <c r="B10" s="10" t="s">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
+        <v>44994</v>
+      </c>
+      <c r="B10" s="14">
+        <v>44995</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.25</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <v>0.25</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="8">
+      <c r="J10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>44999</v>
+      </c>
+      <c r="B12" s="8">
         <v>45014</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>4</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>0.15</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
+        <v>45020</v>
+      </c>
+      <c r="B13" s="8">
         <v>45033</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>5</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>0.15</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
+        <v>45034</v>
+      </c>
+      <c r="B14" s="8">
         <v>45042</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="G14" s="1"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F15" s="3">
+      <c r="H14" s="1"/>
+      <c r="I14" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="M14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
         <v>0.3</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="F16" s="1"/>
+      <c r="M15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" t="s">
+      <c r="H16" s="1"/>
+      <c r="M16" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
         <v>7</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>0.1</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F18" s="1"/>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="G18" s="1"/>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="F20" s="3">
+      <c r="H18" s="1"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
         <v>1</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" s="13">
+        <v>44997</v>
+      </c>
+      <c r="B23" s="8">
+        <v>45016</v>
+      </c>
+      <c r="C23" t="s">
+        <v>24</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="E24" s="11" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{645D2D00-B85C-5C43-8CE5-563380136DE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0BD9F2-061E-A149-8A5A-781A95E6F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>HW1</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Max Dec Val</t>
   </si>
   <si>
-    <t>Anthony, Prithvi Friday @ ??pm</t>
-  </si>
-  <si>
     <t>Anthony, Prithvi</t>
   </si>
   <si>
@@ -126,7 +123,19 @@
     <t>could be total point summation</t>
   </si>
   <si>
-    <t>40/44 written</t>
+    <t>40.5/44 written</t>
+  </si>
+  <si>
+    <t>+5 for bonus</t>
+  </si>
+  <si>
+    <t>lowest HW dropped</t>
+  </si>
+  <si>
+    <t>teams of 1 or 2</t>
+  </si>
+  <si>
+    <t>skipped</t>
   </si>
 </sst>
 </file>
@@ -136,7 +145,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -168,14 +177,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FF9C5700"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,7 +221,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -241,15 +242,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
@@ -573,8 +570,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="200" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,10 +605,10 @@
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A3" s="12">
+      <c r="A3" s="11">
         <v>44957</v>
       </c>
-      <c r="B3" s="12">
+      <c r="B3" s="11">
         <v>44971</v>
       </c>
       <c r="C3" s="9" t="s">
@@ -636,44 +633,44 @@
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="12">
+      <c r="A4" s="11">
         <v>44971</v>
       </c>
-      <c r="B4" s="12">
+      <c r="B4" s="11">
         <v>44985</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>77</v>
+        <v>77.5</v>
       </c>
       <c r="E4" s="4">
         <v>81</v>
       </c>
       <c r="F4" s="5">
         <f>D4/E4</f>
-        <v>0.95061728395061729</v>
+        <v>0.95679012345679015</v>
       </c>
       <c r="G4">
         <v>0.875</v>
       </c>
       <c r="H4" s="6">
         <f>F4*G4</f>
-        <v>0.83179012345679015</v>
-      </c>
-      <c r="J4" s="11" t="s">
+        <v>0.83719135802469136</v>
+      </c>
+      <c r="J4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="11" t="s">
-        <v>29</v>
+      <c r="K4" s="10" t="s">
+        <v>28</v>
       </c>
       <c r="M4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A5" s="13">
+      <c r="A5" s="12">
         <v>44997</v>
       </c>
       <c r="B5" s="8">
@@ -705,8 +702,8 @@
       <c r="G6">
         <v>0.875</v>
       </c>
-      <c r="J6" s="15" t="s">
-        <v>22</v>
+      <c r="J6" s="13" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -724,7 +721,10 @@
       <c r="F7" s="4"/>
       <c r="I7" s="6">
         <f>SUM(H3:H7)</f>
-        <v>1.7897149600580975</v>
+        <v>1.7951161946259986</v>
+      </c>
+      <c r="K7" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -736,13 +736,13 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="A10" s="11">
         <v>44994</v>
       </c>
-      <c r="B10" s="14">
+      <c r="B10" s="11">
         <v>44995</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
       <c r="G10">
@@ -751,12 +751,12 @@
       <c r="H10" s="1">
         <v>0.25</v>
       </c>
-      <c r="J10" t="s">
-        <v>20</v>
+      <c r="J10" s="10" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="13">
+      <c r="A12" s="12">
         <v>44999</v>
       </c>
       <c r="B12" s="8">
@@ -767,6 +767,9 @@
       </c>
       <c r="G12">
         <v>0.15</v>
+      </c>
+      <c r="J12" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -791,17 +794,17 @@
         <v>45042</v>
       </c>
       <c r="C14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="15" t="s">
-        <v>22</v>
+      <c r="I14" s="13" t="s">
+        <v>21</v>
       </c>
       <c r="M14" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
@@ -812,17 +815,17 @@
         <v>0.3</v>
       </c>
       <c r="M15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="M16" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -833,11 +836,11 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="G20" s="3">
         <v>1</v>
       </c>
@@ -845,26 +848,29 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23" s="13">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="8">
         <v>44997</v>
       </c>
       <c r="B23" s="8">
-        <v>45016</v>
+        <v>45000</v>
       </c>
       <c r="C23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D23" s="2"/>
-      <c r="E23" s="11" t="s">
+      <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="E24" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="L23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="E24" s="10" t="s">
         <v>17</v>
       </c>
     </row>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{CE0BD9F2-061E-A149-8A5A-781A95E6F34D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C479D30-05D6-AF46-949F-78EF2B691B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
   <si>
     <t>HW1</t>
   </si>
@@ -136,6 +135,9 @@
   </si>
   <si>
     <t>skipped</t>
+  </si>
+  <si>
+    <t>???</t>
   </si>
 </sst>
 </file>
@@ -571,7 +573,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -674,7 +676,7 @@
         <v>44997</v>
       </c>
       <c r="B5" s="8">
-        <v>45012</v>
+        <v>45014</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -756,11 +758,11 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
-        <v>44999</v>
-      </c>
-      <c r="B12" s="8">
-        <v>45014</v>
+      <c r="A12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C479D30-05D6-AF46-949F-78EF2B691B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9477521-FC5B-6546-B87A-A06E1B46D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
   <si>
     <t>HW1</t>
   </si>
@@ -138,6 +138,12 @@
   </si>
   <si>
     <t>???</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>should have extra credit for bonus case in date checking month/day etc.</t>
   </si>
 </sst>
 </file>
@@ -184,7 +190,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -206,6 +212,12 @@
         <fgColor rgb="FFFFC7CE"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -223,7 +235,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -252,6 +264,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
+    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -573,7 +588,7 @@
   <dimension ref="A2:M24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -633,6 +648,9 @@
         <f>F3*G3</f>
         <v>0.95792483660130734</v>
       </c>
+      <c r="J3" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
@@ -747,6 +765,9 @@
       <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
+      <c r="D10" t="s">
+        <v>34</v>
+      </c>
       <c r="G10">
         <v>0.25</v>
       </c>
@@ -761,11 +782,14 @@
       <c r="A12" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="14" t="s">
         <v>33</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
       </c>
       <c r="G12">
         <v>0.15</v>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A9477521-FC5B-6546-B87A-A06E1B46D80C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD40773-3223-B246-B34D-A034F5D45AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
   <si>
     <t>HW1</t>
   </si>
@@ -135,9 +135,6 @@
   </si>
   <si>
     <t>skipped</t>
-  </si>
-  <si>
-    <t>???</t>
   </si>
   <si>
     <t>?</t>
@@ -153,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -185,6 +182,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -235,7 +240,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -265,6 +270,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -587,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
   <dimension ref="A2:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView tabSelected="1" zoomScale="269" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -649,7 +657,7 @@
         <v>0.95792483660130734</v>
       </c>
       <c r="J3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -693,13 +701,15 @@
       <c r="A5" s="12">
         <v>44997</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="15">
         <v>45014</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4"/>
+      <c r="D5" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5">
@@ -707,11 +717,11 @@
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6" s="8">
-        <v>45013</v>
+      <c r="A6" s="12">
+        <v>45015</v>
       </c>
       <c r="B6" s="8">
-        <v>45020</v>
+        <v>45029</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -728,10 +738,10 @@
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>45027</v>
+        <v>45029</v>
       </c>
       <c r="B7" s="8">
-        <v>45040</v>
+        <v>45043</v>
       </c>
       <c r="C7" t="s">
         <v>12</v>
@@ -766,7 +776,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G10">
         <v>0.25</v>
@@ -779,17 +789,17 @@
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A12" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>33</v>
+      <c r="A12" s="12">
+        <v>45013</v>
+      </c>
+      <c r="B12" s="14">
+        <v>45027</v>
       </c>
       <c r="C12" t="s">
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G12">
         <v>0.15</v>
@@ -800,10 +810,10 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>45020</v>
+        <v>45027</v>
       </c>
       <c r="B13" s="8">
-        <v>45033</v>
+        <v>45040</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -814,10 +824,10 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
-        <v>45034</v>
+        <v>45041</v>
       </c>
       <c r="B14" s="8">
-        <v>45042</v>
+        <v>45051</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABD40773-3223-B246-B34D-A034F5D45AA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75516F80-898D-4A49-B8D5-FE482296A0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>HW1</t>
   </si>
@@ -119,9 +119,6 @@
     <t xml:space="preserve">Optional assignments can be done </t>
   </si>
   <si>
-    <t>could be total point summation</t>
-  </si>
-  <si>
     <t>40.5/44 written</t>
   </si>
   <si>
@@ -141,6 +138,18 @@
   </si>
   <si>
     <t>should have extra credit for bonus case in date checking month/day etc.</t>
+  </si>
+  <si>
+    <t>linear kernel</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>logistic decision trees, random forests</t>
+  </si>
+  <si>
+    <t>perceptron</t>
   </si>
 </sst>
 </file>
@@ -593,10 +602,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
-  <dimension ref="A2:M24"/>
+  <dimension ref="A2:M27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="269" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -657,7 +666,7 @@
         <v>0.95792483660130734</v>
       </c>
       <c r="J3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
@@ -691,9 +700,6 @@
         <v>14</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" t="s">
         <v>27</v>
       </c>
     </row>
@@ -708,12 +714,15 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5">
         <v>0.875</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
@@ -734,6 +743,9 @@
       </c>
       <c r="J6" s="13" t="s">
         <v>21</v>
+      </c>
+      <c r="L6" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
@@ -754,7 +766,7 @@
         <v>1.7951161946259986</v>
       </c>
       <c r="K7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
@@ -776,7 +788,7 @@
         <v>6</v>
       </c>
       <c r="D10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G10">
         <v>0.25</v>
@@ -785,7 +797,7 @@
         <v>0.25</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
@@ -799,13 +811,19 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G12">
         <v>0.15</v>
       </c>
       <c r="J12" t="s">
-        <v>31</v>
+        <v>30</v>
+      </c>
+      <c r="L12" t="s">
+        <v>34</v>
+      </c>
+      <c r="M12" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
@@ -839,9 +857,6 @@
       <c r="I14" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="M14" t="s">
-        <v>26</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G15" s="3">
@@ -850,16 +865,10 @@
       <c r="H15" s="1">
         <v>0.3</v>
       </c>
-      <c r="M15" t="s">
-        <v>25</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="M16" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
@@ -902,12 +911,27 @@
         <v>20</v>
       </c>
       <c r="L23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="E24" s="10" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I25" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I27" t="s">
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75516F80-898D-4A49-B8D5-FE482296A0C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039D3D4-031A-A343-9C4C-93CA6DC8E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>HW1</t>
   </si>
@@ -150,6 +150,9 @@
   </si>
   <si>
     <t>perceptron</t>
+  </si>
+  <si>
+    <t>34/34 coding</t>
   </si>
 </sst>
 </file>
@@ -249,7 +252,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,6 +287,7 @@
     <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -605,7 +609,7 @@
   <dimension ref="A2:M27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -721,6 +725,9 @@
       <c r="G5">
         <v>0.875</v>
       </c>
+      <c r="J5" t="s">
+        <v>38</v>
+      </c>
       <c r="L5" t="s">
         <v>37</v>
       </c>
@@ -787,14 +794,22 @@
       <c r="C10" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="D10" t="s">
-        <v>32</v>
+      <c r="D10" s="4">
+        <v>96.5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10/E10</f>
+        <v>0.96499999999999997</v>
       </c>
       <c r="G10">
         <v>0.25</v>
       </c>
-      <c r="H10" s="1">
-        <v>0.25</v>
+      <c r="H10" s="16">
+        <f>F10*G10</f>
+        <v>0.24124999999999999</v>
       </c>
       <c r="J10" s="10" t="s">
         <v>28</v>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E039D3D4-031A-A343-9C4C-93CA6DC8E704}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAC9B2-DD42-6042-B563-8BDC8BF29D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
   <si>
     <t>HW1</t>
   </si>
@@ -122,12 +122,6 @@
     <t>40.5/44 written</t>
   </si>
   <si>
-    <t>+5 for bonus</t>
-  </si>
-  <si>
-    <t>lowest HW dropped</t>
-  </si>
-  <si>
     <t>teams of 1 or 2</t>
   </si>
   <si>
@@ -153,6 +147,21 @@
   </si>
   <si>
     <t>34/34 coding</t>
+  </si>
+  <si>
+    <t>Running Total</t>
+  </si>
+  <si>
+    <t>Available Points</t>
+  </si>
+  <si>
+    <t>fill out proj sheet</t>
+  </si>
+  <si>
+    <t>must be full points…only missed was first class due to conflict</t>
+  </si>
+  <si>
+    <t>lowest HW dropped of all 5</t>
   </si>
 </sst>
 </file>
@@ -162,7 +171,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -194,14 +203,6 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -252,7 +253,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -284,10 +285,9 @@
     <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
+    <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="4" builtinId="27"/>
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
-  <dimension ref="A2:M27"/>
+  <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -617,9 +617,11 @@
     <col min="1" max="1" width="7.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="10.83203125" style="7"/>
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>15</v>
       </c>
@@ -641,8 +643,14 @@
       <c r="H2" s="4" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I2" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" s="11">
         <v>44957</v>
       </c>
@@ -663,17 +671,19 @@
         <v>1.0947712418300655</v>
       </c>
       <c r="G3">
-        <v>0.875</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H3" s="6">
         <f>F3*G3</f>
-        <v>0.95792483660130734</v>
-      </c>
-      <c r="J3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+        <v>9.5792483660130726E-2</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="11">
         <v>44971</v>
       </c>
@@ -694,45 +704,47 @@
         <v>0.95679012345679015</v>
       </c>
       <c r="G4">
-        <v>0.875</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="H4" s="6">
         <f>F4*G4</f>
-        <v>0.83719135802469136</v>
-      </c>
-      <c r="J4" s="10" t="s">
+        <v>8.3719135802469133E-2</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="L4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="10" t="s">
+      <c r="M4" s="10" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44997</v>
       </c>
-      <c r="B5" s="15">
-        <v>45014</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" s="12">
+        <v>45015</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
       <c r="G5">
-        <v>0.875</v>
-      </c>
-      <c r="J5" t="s">
-        <v>38</v>
+        <v>8.7499999999999994E-2</v>
       </c>
       <c r="L5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="N5" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
         <v>45015</v>
       </c>
@@ -746,16 +758,13 @@
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
       <c r="G6">
-        <v>0.875</v>
-      </c>
-      <c r="J6" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="L6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="N6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
         <v>45029</v>
       </c>
@@ -770,21 +779,28 @@
       <c r="F7" s="4"/>
       <c r="I7" s="6">
         <f>SUM(H3:H7)</f>
-        <v>1.7951161946259986</v>
-      </c>
-      <c r="K7" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+        <v>0.17951161946259986</v>
+      </c>
+      <c r="J7" s="6">
+        <f>SUM(G3:G4)</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G8">
         <v>0.35</v>
       </c>
       <c r="H8" s="1">
         <v>0.35</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" s="11">
         <v>44994</v>
       </c>
@@ -807,15 +823,20 @@
       <c r="G10">
         <v>0.25</v>
       </c>
-      <c r="H10" s="16">
+      <c r="H10" s="15">
         <f>F10*G10</f>
         <v>0.24124999999999999</v>
       </c>
-      <c r="J10" s="10" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I10" s="15">
+        <f>H10</f>
+        <v>0.24124999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
         <v>45013</v>
       </c>
@@ -826,22 +847,25 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="G12">
         <v>0.15</v>
       </c>
-      <c r="J12" t="s">
-        <v>30</v>
-      </c>
       <c r="L12" t="s">
-        <v>34</v>
-      </c>
-      <c r="M12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+        <v>28</v>
+      </c>
+      <c r="N12" t="s">
+        <v>32</v>
+      </c>
+      <c r="O12" t="s">
+        <v>33</v>
+      </c>
+      <c r="P12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
         <v>45027</v>
       </c>
@@ -854,8 +878,11 @@
       <c r="G13">
         <v>0.15</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" s="8">
         <v>45041</v>
       </c>
@@ -869,23 +896,29 @@
         <v>8</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="13" t="s">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G15" s="3">
         <v>0.3</v>
       </c>
       <c r="H15" s="1">
         <v>0.3</v>
       </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="C17" t="s">
         <v>7</v>
       </c>
@@ -895,20 +928,39 @@
       <c r="H17" s="1">
         <v>0.1</v>
       </c>
-    </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="G20" s="3">
         <v>1</v>
       </c>
       <c r="H20" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="I20" s="17">
+        <f>SUM(I2:I19)</f>
+        <v>0.5207616194625998</v>
+      </c>
+      <c r="J20" s="17">
+        <f>SUM(J3:J19)</f>
+        <v>0.52500000000000002</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" s="8">
         <v>44997</v>
       </c>
@@ -922,30 +974,30 @@
       <c r="E23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>20</v>
       </c>
-      <c r="L23" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="E24" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I25" t="s">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I26" t="s">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="I27" t="s">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
         <v>24</v>
       </c>
     </row>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEFAC9B2-DD42-6042-B563-8BDC8BF29D9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA7408F-E0B2-F849-A229-DDE2E944C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1020" yWindow="880" windowWidth="34980" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
+    <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
   <si>
     <t>HW1</t>
   </si>
@@ -86,12 +86,6 @@
     <t>Avail</t>
   </si>
   <si>
-    <t>+3 points to final grade for winning team</t>
-  </si>
-  <si>
-    <t>+10 points to lowest proj score for participation</t>
-  </si>
-  <si>
     <t>Weighted Val</t>
   </si>
   <si>
@@ -105,9 +99,6 @@
   </si>
   <si>
     <t>Proj3 [opt]</t>
-  </si>
-  <si>
-    <t>March Madness [opt]</t>
   </si>
   <si>
     <t>(2) to replace the lowest homework or project grade if this helps more than the extra credit.1 Both of these optional assignments will be graded like all other assignments. When submitted, whichever yields the best final grade.</t>
@@ -253,7 +244,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -286,7 +277,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -608,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -638,16 +628,16 @@
         <v>11</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -680,7 +670,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="L3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -716,21 +706,21 @@
         <v>14</v>
       </c>
       <c r="M4" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>44997</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45015</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A5" s="12">
-        <v>44997</v>
-      </c>
-      <c r="B5" s="12">
-        <v>45015</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>30</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -738,10 +728,10 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="N5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -761,7 +751,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="N6" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -787,7 +777,7 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -811,25 +801,25 @@
         <v>6</v>
       </c>
       <c r="D10" s="4">
-        <v>96.5</v>
+        <v>97.5</v>
       </c>
       <c r="E10" s="4">
         <v>100</v>
       </c>
       <c r="F10" s="5">
         <f>D10/E10</f>
-        <v>0.96499999999999997</v>
+        <v>0.97499999999999998</v>
       </c>
       <c r="G10">
         <v>0.25</v>
       </c>
       <c r="H10" s="15">
         <f>F10*G10</f>
-        <v>0.24124999999999999</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="I10" s="15">
         <f>H10</f>
-        <v>0.24124999999999999</v>
+        <v>0.24374999999999999</v>
       </c>
       <c r="J10">
         <v>0.25</v>
@@ -838,7 +828,7 @@
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="12">
-        <v>45013</v>
+        <v>45015</v>
       </c>
       <c r="B12" s="14">
         <v>45027</v>
@@ -847,22 +837,22 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G12">
         <v>0.15</v>
       </c>
       <c r="L12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="N12" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="O12" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="P12" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -879,7 +869,7 @@
         <v>0.15</v>
       </c>
       <c r="L13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -890,7 +880,7 @@
         <v>45051</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G14" s="2" t="s">
         <v>8</v>
@@ -899,7 +889,7 @@
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
@@ -935,7 +925,7 @@
         <v>0.1</v>
       </c>
       <c r="L17" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -951,54 +941,43 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <f>SUM(I2:I19)</f>
-        <v>0.5207616194625998</v>
-      </c>
-      <c r="J20" s="17">
+        <v>0.52326161946259986</v>
+      </c>
+      <c r="J20" s="16">
         <f>SUM(J3:J19)</f>
         <v>0.52500000000000002</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A23" s="8">
-        <v>44997</v>
-      </c>
-      <c r="B23" s="8">
-        <v>45000</v>
-      </c>
-      <c r="C23" t="s">
-        <v>23</v>
-      </c>
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="10" t="s">
-        <v>16</v>
-      </c>
+      <c r="E23" s="10"/>
       <c r="L23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="E24" s="10" t="s">
-        <v>17</v>
-      </c>
+      <c r="E24" s="10"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DA7408F-E0B2-F849-A229-DDE2E944C25E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76D192-DB54-AE4C-92C8-1B7674EBB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -599,7 +599,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -736,7 +736,7 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>45015</v>
+        <v>45021</v>
       </c>
       <c r="B6" s="8">
         <v>45029</v>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF76D192-DB54-AE4C-92C8-1B7674EBB1A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D562AB-BF8C-AA42-9592-7952EE0298E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -110,9 +110,6 @@
     <t xml:space="preserve">Optional assignments can be done </t>
   </si>
   <si>
-    <t>40.5/44 written</t>
-  </si>
-  <si>
     <t>teams of 1 or 2</t>
   </si>
   <si>
@@ -153,6 +150,9 @@
   </si>
   <si>
     <t>lowest HW dropped of all 5</t>
+  </si>
+  <si>
+    <t>42/44 written</t>
   </si>
 </sst>
 </file>
@@ -599,7 +599,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -634,10 +634,10 @@
         <v>16</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>34</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -670,7 +670,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="L3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -684,21 +684,21 @@
         <v>1</v>
       </c>
       <c r="D4" s="4">
-        <v>77.5</v>
+        <v>79</v>
       </c>
       <c r="E4" s="4">
         <v>81</v>
       </c>
       <c r="F4" s="5">
         <f>D4/E4</f>
-        <v>0.95679012345679015</v>
+        <v>0.97530864197530864</v>
       </c>
       <c r="G4">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="H4" s="6">
         <f>F4*G4</f>
-        <v>8.3719135802469133E-2</v>
+        <v>8.5339506172839502E-2</v>
       </c>
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
@@ -706,7 +706,7 @@
         <v>14</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -720,7 +720,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -728,18 +728,18 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="12">
-        <v>45021</v>
-      </c>
-      <c r="B6" s="8">
-        <v>45029</v>
+        <v>45022</v>
+      </c>
+      <c r="B6" s="12">
+        <v>45033</v>
       </c>
       <c r="C6" t="s">
         <v>3</v>
@@ -751,7 +751,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="N6" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -769,7 +769,7 @@
       <c r="F7" s="4"/>
       <c r="I7" s="6">
         <f>SUM(H3:H7)</f>
-        <v>0.17951161946259986</v>
+        <v>0.18113198983297024</v>
       </c>
       <c r="J7" s="6">
         <f>SUM(G3:G4)</f>
@@ -777,7 +777,7 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -837,22 +837,22 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G12">
         <v>0.15</v>
       </c>
       <c r="L12" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N12" t="s">
+        <v>28</v>
+      </c>
+      <c r="O12" t="s">
         <v>29</v>
       </c>
-      <c r="O12" t="s">
-        <v>30</v>
-      </c>
       <c r="P12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -869,7 +869,7 @@
         <v>0.15</v>
       </c>
       <c r="L13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
@@ -925,7 +925,7 @@
         <v>0.1</v>
       </c>
       <c r="L17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -943,7 +943,7 @@
       </c>
       <c r="I20" s="16">
         <f>SUM(I2:I19)</f>
-        <v>0.52326161946259986</v>
+        <v>0.52488198983297019</v>
       </c>
       <c r="J20" s="16">
         <f>SUM(J3:J19)</f>
@@ -959,7 +959,7 @@
         <v>18</v>
       </c>
       <c r="N23" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3D562AB-BF8C-AA42-9592-7952EE0298E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE3282-31D7-C141-B172-CAA2C6029CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -199,7 +199,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -219,12 +219,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -273,10 +267,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
-    <xf numFmtId="16" fontId="3" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -599,7 +591,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -741,7 +733,7 @@
       <c r="B6" s="12">
         <v>45033</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C6" s="15" t="s">
         <v>3</v>
       </c>
       <c r="D6" s="4"/>
@@ -813,11 +805,11 @@
       <c r="G10">
         <v>0.25</v>
       </c>
-      <c r="H10" s="15">
+      <c r="H10" s="14">
         <f>F10*G10</f>
         <v>0.24374999999999999</v>
       </c>
-      <c r="I10" s="15">
+      <c r="I10" s="14">
         <f>H10</f>
         <v>0.24374999999999999</v>
       </c>
@@ -827,16 +819,16 @@
       <c r="L10" s="10"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A12" s="12">
+      <c r="A12" s="11">
         <v>45015</v>
       </c>
-      <c r="B12" s="14">
-        <v>45027</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="B12" s="11">
+        <v>45029</v>
+      </c>
+      <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="4" t="s">
         <v>26</v>
       </c>
       <c r="G12">

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48BE3282-31D7-C141-B172-CAA2C6029CBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE808F2C-9EE2-4E4F-B2BE-BA29604DCFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>HW1</t>
   </si>
@@ -62,9 +62,6 @@
     <t>Part (PollEv)</t>
   </si>
   <si>
-    <t>??</t>
-  </si>
-  <si>
     <t>score</t>
   </si>
   <si>
@@ -93,12 +90,6 @@
   </si>
   <si>
     <t>Anthony, Prithvi</t>
-  </si>
-  <si>
-    <t>SHORT TIME</t>
-  </si>
-  <si>
-    <t>Proj3 [opt]</t>
   </si>
   <si>
     <t>(2) to replace the lowest homework or project grade if this helps more than the extra credit.1 Both of these optional assignments will be graded like all other assignments. When submitted, whichever yields the best final grade.</t>
@@ -590,8 +581,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="191" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -605,31 +596,31 @@
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>16</v>
-      </c>
       <c r="I2" s="4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="J2" s="4" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -662,7 +653,7 @@
       <c r="I3" s="6"/>
       <c r="J3" s="6"/>
       <c r="L3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.2">
@@ -695,10 +686,10 @@
       <c r="I4" s="6"/>
       <c r="J4" s="6"/>
       <c r="L4" s="10" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -712,7 +703,7 @@
         <v>2</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -720,10 +711,10 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="N5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
@@ -743,7 +734,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="N6" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
@@ -754,7 +745,7 @@
         <v>45043</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -769,7 +760,7 @@
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -829,22 +820,22 @@
         <v>4</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="G12">
         <v>0.15</v>
       </c>
       <c r="L12" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="N12" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="O12" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -861,28 +852,17 @@
         <v>0.15</v>
       </c>
       <c r="L13" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A14" s="8">
-        <v>45041</v>
-      </c>
-      <c r="B14" s="8">
-        <v>45051</v>
-      </c>
-      <c r="C14" t="s">
-        <v>20</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>8</v>
-      </c>
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="G14" s="2"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="13" t="s">
-        <v>19</v>
-      </c>
+      <c r="K14" s="13"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G15" s="3">
@@ -917,7 +897,7 @@
         <v>0.1</v>
       </c>
       <c r="L17" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -948,10 +928,10 @@
       <c r="D23" s="2"/>
       <c r="E23" s="10"/>
       <c r="L23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N23" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.2">
@@ -959,17 +939,17 @@
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K25" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K26" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.2">
       <c r="K27" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE808F2C-9EE2-4E4F-B2BE-BA29604DCFD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AFEEB4-8EC9-AC48-BE19-894CC180F7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>HW1</t>
   </si>
@@ -125,9 +125,6 @@
     <t>perceptron</t>
   </si>
   <si>
-    <t>34/34 coding</t>
-  </si>
-  <si>
     <t>Running Total</t>
   </si>
   <si>
@@ -144,6 +141,15 @@
   </si>
   <si>
     <t>42/44 written</t>
+  </si>
+  <si>
+    <t>35/35 coding</t>
+  </si>
+  <si>
+    <t>51/53 written</t>
+  </si>
+  <si>
+    <t>22.5/23 coding</t>
   </si>
 </sst>
 </file>
@@ -582,7 +588,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -592,6 +598,8 @@
     <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16" x14ac:dyDescent="0.2">
@@ -617,10 +625,10 @@
         <v>15</v>
       </c>
       <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -689,7 +697,7 @@
         <v>13</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.2">
@@ -702,16 +710,28 @@
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="D5" s="4">
+        <v>86</v>
+      </c>
+      <c r="E5" s="4">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5/E5</f>
+        <v>0.97727272727272729</v>
+      </c>
       <c r="G5">
         <v>8.7499999999999994E-2</v>
       </c>
+      <c r="H5" s="6">
+        <f>F5*G5</f>
+        <v>8.5511363636363635E-2</v>
+      </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>35</v>
+      </c>
+      <c r="M5" t="s">
+        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -733,6 +753,9 @@
       <c r="G6">
         <v>8.7499999999999994E-2</v>
       </c>
+      <c r="L6" t="s">
+        <v>37</v>
+      </c>
       <c r="N6" t="s">
         <v>27</v>
       </c>
@@ -752,15 +775,15 @@
       <c r="F7" s="4"/>
       <c r="I7" s="6">
         <f>SUM(H3:H7)</f>
-        <v>0.18113198983297024</v>
+        <v>0.26664335346933388</v>
       </c>
       <c r="J7" s="6">
-        <f>SUM(G3:G4)</f>
-        <v>0.17499999999999999</v>
+        <f>SUM(G3:G5)</f>
+        <v>0.26249999999999996</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.2">
@@ -835,7 +858,7 @@
         <v>26</v>
       </c>
       <c r="P12" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
@@ -897,7 +920,7 @@
         <v>0.1</v>
       </c>
       <c r="L17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.2">
@@ -915,11 +938,11 @@
       </c>
       <c r="I20" s="16">
         <f>SUM(I2:I19)</f>
-        <v>0.52488198983297019</v>
+        <v>0.61039335346933388</v>
       </c>
       <c r="J20" s="16">
         <f>SUM(J3:J19)</f>
-        <v>0.52500000000000002</v>
+        <v>0.61249999999999993</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10312"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10409"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4AFEEB4-8EC9-AC48-BE19-894CC180F7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C030D5-BB6C-F14F-960C-301F4D8B3182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
   <si>
     <t>HW1</t>
   </si>
@@ -235,7 +236,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -260,12 +261,8 @@
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="16" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="3"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
@@ -588,7 +585,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -738,17 +735,21 @@
       </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A6" s="12">
+      <c r="A6" s="11">
         <v>45022</v>
       </c>
-      <c r="B6" s="12">
+      <c r="B6" s="11">
         <v>45033</v>
       </c>
-      <c r="C6" s="15" t="s">
+      <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4"/>
-      <c r="E6" s="4"/>
+      <c r="D6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="F6" s="4"/>
       <c r="G6">
         <v>8.7499999999999994E-2</v>
@@ -819,11 +820,11 @@
       <c r="G10">
         <v>0.25</v>
       </c>
-      <c r="H10" s="14">
+      <c r="H10" s="13">
         <f>F10*G10</f>
         <v>0.24374999999999999</v>
       </c>
-      <c r="I10" s="14">
+      <c r="I10" s="13">
         <f>H10</f>
         <v>0.24374999999999999</v>
       </c>
@@ -885,7 +886,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="13"/>
+      <c r="K14" s="12"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G15" s="3">
@@ -936,11 +937,11 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="16">
+      <c r="I20" s="14">
         <f>SUM(I2:I19)</f>
         <v>0.61039335346933388</v>
       </c>
-      <c r="J20" s="16">
+      <c r="J20" s="14">
         <f>SUM(J3:J19)</f>
         <v>0.61249999999999993</v>
       </c>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86C030D5-BB6C-F14F-960C-301F4D8B3182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11BEEEF-FFEB-814A-AC15-7B0175896628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="880" windowWidth="35000" windowHeight="22500" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
+    <workbookView xWindow="1000" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -144,13 +144,13 @@
     <t>42/44 written</t>
   </si>
   <si>
-    <t>35/35 coding</t>
-  </si>
-  <si>
     <t>51/53 written</t>
   </si>
   <si>
     <t>22.5/23 coding</t>
+  </si>
+  <si>
+    <t>35/34 coding</t>
   </si>
 </sst>
 </file>
@@ -585,7 +585,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -708,27 +708,27 @@
         <v>2</v>
       </c>
       <c r="D5" s="4">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="E5" s="4">
         <v>88</v>
       </c>
       <c r="F5" s="5">
         <f>D5/E5</f>
-        <v>0.97727272727272729</v>
+        <v>0.98863636363636365</v>
       </c>
       <c r="G5">
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="H5" s="6">
         <f>F5*G5</f>
-        <v>8.5511363636363635E-2</v>
+        <v>8.6505681818181815E-2</v>
       </c>
       <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
         <v>35</v>
-      </c>
-      <c r="M5" t="s">
-        <v>36</v>
       </c>
       <c r="N5" t="s">
         <v>28</v>
@@ -755,7 +755,7 @@
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="N6" t="s">
         <v>27</v>
@@ -763,10 +763,10 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="8">
-        <v>45029</v>
+        <v>45041</v>
       </c>
       <c r="B7" s="8">
-        <v>45043</v>
+        <v>45051</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
@@ -776,7 +776,7 @@
       <c r="F7" s="4"/>
       <c r="I7" s="6">
         <f>SUM(H3:H7)</f>
-        <v>0.26664335346933388</v>
+        <v>0.26763767165115204</v>
       </c>
       <c r="J7" s="6">
         <f>SUM(G3:G5)</f>
@@ -864,10 +864,10 @@
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="8">
-        <v>45027</v>
+        <v>45039</v>
       </c>
       <c r="B13" s="8">
-        <v>45040</v>
+        <v>45051</v>
       </c>
       <c r="C13" t="s">
         <v>5</v>
@@ -939,7 +939,7 @@
       </c>
       <c r="I20" s="14">
         <f>SUM(I2:I19)</f>
-        <v>0.61039335346933388</v>
+        <v>0.61138767165115204</v>
       </c>
       <c r="J20" s="14">
         <f>SUM(J3:J19)</f>

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D11BEEEF-FFEB-814A-AC15-7B0175896628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1070A6C0-8068-3C46-A512-0738959A4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1000" yWindow="760" windowWidth="29240" windowHeight="18880" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
+    <workbookView xWindow="1020" yWindow="880" windowWidth="30100" windowHeight="21980" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>HW1</t>
   </si>
@@ -151,6 +151,9 @@
   </si>
   <si>
     <t>35/34 coding</t>
+  </si>
+  <si>
+    <t>40/40 code?</t>
   </si>
 </sst>
 </file>
@@ -160,7 +163,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -189,15 +192,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -214,11 +210,6 @@
         <fgColor rgb="FFFFEB9C"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -229,14 +220,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -261,12 +251,10 @@
     <xf numFmtId="16" fontId="2" fillId="2" borderId="0" xfId="2" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="4"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="10" fontId="3" fillId="3" borderId="0" xfId="3" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="Bad" xfId="4" builtinId="27"/>
+  <cellStyles count="4">
     <cellStyle name="Good" xfId="2" builtinId="26"/>
     <cellStyle name="Neutral" xfId="3" builtinId="28"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -584,8 +572,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -820,11 +808,11 @@
       <c r="G10">
         <v>0.25</v>
       </c>
-      <c r="H10" s="13">
+      <c r="H10" s="12">
         <f>F10*G10</f>
         <v>0.24374999999999999</v>
       </c>
-      <c r="I10" s="13">
+      <c r="I10" s="12">
         <f>H10</f>
         <v>0.24374999999999999</v>
       </c>
@@ -843,14 +831,28 @@
       <c r="C12" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>23</v>
+      <c r="D12" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12/E12</f>
+        <v>0.92500000000000004</v>
       </c>
       <c r="G12">
         <v>0.15</v>
       </c>
+      <c r="H12">
+        <f>F12*G12</f>
+        <v>0.13875000000000001</v>
+      </c>
       <c r="L12" t="s">
         <v>21</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>38</v>
       </c>
       <c r="N12" t="s">
         <v>25</v>
@@ -872,7 +874,17 @@
       <c r="C13" t="s">
         <v>5</v>
       </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
       <c r="G13">
+        <v>0.15</v>
+      </c>
+      <c r="I13">
+        <f>H12+H13</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="J13" s="3">
         <v>0.15</v>
       </c>
       <c r="L13" t="s">
@@ -886,7 +898,7 @@
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
-      <c r="K14" s="12"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="G15" s="3">
@@ -908,6 +920,12 @@
       <c r="C17" t="s">
         <v>7</v>
       </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
       <c r="G17" s="3">
         <v>0.1</v>
       </c>
@@ -937,13 +955,13 @@
       <c r="H20" s="1">
         <v>1</v>
       </c>
-      <c r="I20" s="14">
+      <c r="I20" s="13">
         <f>SUM(I2:I19)</f>
-        <v>0.61138767165115204</v>
-      </c>
-      <c r="J20" s="14">
+        <v>0.75013767165115208</v>
+      </c>
+      <c r="J20" s="13">
         <f>SUM(J3:J19)</f>
-        <v>0.61249999999999993</v>
+        <v>0.76249999999999996</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1070A6C0-8068-3C46-A512-0738959A4F84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFEF697-262F-AA40-9362-6D571F97B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="30100" windowHeight="21980" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
   <si>
     <t>HW1</t>
   </si>
@@ -573,7 +573,7 @@
   <dimension ref="A2:P27"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -732,14 +732,21 @@
       <c r="C6" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F6" s="4"/>
+      <c r="D6" s="4">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6/E6</f>
+        <v>1</v>
+      </c>
       <c r="G6">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H6">
+        <f>G6*F6</f>
         <v>8.7499999999999994E-2</v>
       </c>
       <c r="L6" t="s">
@@ -764,11 +771,11 @@
       <c r="F7" s="4"/>
       <c r="I7" s="6">
         <f>SUM(H3:H7)</f>
-        <v>0.26763767165115204</v>
+        <v>0.35513767165115206</v>
       </c>
       <c r="J7" s="6">
-        <f>SUM(G3:G5)</f>
-        <v>0.26249999999999996</v>
+        <f>SUM(G3:G6)</f>
+        <v>0.35</v>
       </c>
       <c r="K7" s="6"/>
       <c r="L7" t="s">
@@ -957,11 +964,11 @@
       </c>
       <c r="I20" s="13">
         <f>SUM(I2:I19)</f>
-        <v>0.75013767165115208</v>
+        <v>0.8376376716511521</v>
       </c>
       <c r="J20" s="13">
         <f>SUM(J3:J19)</f>
-        <v>0.76249999999999996</v>
+        <v>0.85</v>
       </c>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.2">

--- a/GradeCalcCS135.xlsx
+++ b/GradeCalcCS135.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudo/CodeProjects/Tufts/CS0135/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FFEF697-262F-AA40-9362-6D571F97B2E1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E24DB87B-0BAB-1945-AF64-894BEEAB48FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1020" yWindow="880" windowWidth="30100" windowHeight="21980" xr2:uid="{CEDA9B79-AA12-3148-A57D-A1F1ACAD8C6A}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1 (2)" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <fileRecoveryPr repairLoad="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="41">
   <si>
     <t>HW1</t>
   </si>
@@ -154,6 +155,12 @@
   </si>
   <si>
     <t>40/40 code?</t>
+  </si>
+  <si>
+    <t>31/31 code</t>
+  </si>
+  <si>
+    <t>10/10 written</t>
   </si>
 </sst>
 </file>
@@ -569,10 +576,451 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEC16B75-CD82-C841-A21B-5B79A820F805}">
+  <dimension ref="A2:P27"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="7.6640625" style="7" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="7"/>
+    <col min="8" max="8" width="12.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15" customWidth="1"/>
+    <col min="13" max="13" width="14.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>44957</v>
+      </c>
+      <c r="B3" s="11">
+        <v>44971</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="4">
+        <v>83.75</v>
+      </c>
+      <c r="E3" s="4">
+        <v>76.5</v>
+      </c>
+      <c r="F3" s="5">
+        <f>D3/E3</f>
+        <v>1.0947712418300655</v>
+      </c>
+      <c r="G3">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H3" s="6">
+        <f>F3*G3</f>
+        <v>9.5792483660130726E-2</v>
+      </c>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="L3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>44971</v>
+      </c>
+      <c r="B4" s="11">
+        <v>44985</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>79</v>
+      </c>
+      <c r="E4" s="4">
+        <v>81</v>
+      </c>
+      <c r="F4" s="5">
+        <f>D4/E4</f>
+        <v>0.97530864197530864</v>
+      </c>
+      <c r="G4">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H4" s="6">
+        <f>F4*G4</f>
+        <v>8.5339506172839502E-2</v>
+      </c>
+      <c r="I4" s="6"/>
+      <c r="J4" s="6"/>
+      <c r="L4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>44997</v>
+      </c>
+      <c r="B5" s="11">
+        <v>45015</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D5" s="4">
+        <v>87</v>
+      </c>
+      <c r="E5" s="4">
+        <v>88</v>
+      </c>
+      <c r="F5" s="5">
+        <f>D5/E5</f>
+        <v>0.98863636363636365</v>
+      </c>
+      <c r="G5">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H5" s="6">
+        <f>F5*G5</f>
+        <v>8.6505681818181815E-2</v>
+      </c>
+      <c r="L5" t="s">
+        <v>37</v>
+      </c>
+      <c r="M5" t="s">
+        <v>35</v>
+      </c>
+      <c r="N5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>45022</v>
+      </c>
+      <c r="B6" s="11">
+        <v>45033</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="4">
+        <v>41</v>
+      </c>
+      <c r="E6" s="4">
+        <v>41</v>
+      </c>
+      <c r="F6" s="5">
+        <f>D6/E6</f>
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="H6">
+        <f>G6*F6</f>
+        <v>8.7499999999999994E-2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>39</v>
+      </c>
+      <c r="M6" t="s">
+        <v>40</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A7" s="8">
+        <v>45041</v>
+      </c>
+      <c r="B7" s="8">
+        <v>45051</v>
+      </c>
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="I7" s="6">
+        <f>SUM(H3:H7)</f>
+        <v>0.35513767165115206</v>
+      </c>
+      <c r="J7" s="6">
+        <f>SUM(G3:G6)</f>
+        <v>0.35</v>
+      </c>
+      <c r="K7" s="6"/>
+      <c r="L7" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G8">
+        <v>0.35</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>44994</v>
+      </c>
+      <c r="B10" s="11">
+        <v>44995</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="4">
+        <v>97.5</v>
+      </c>
+      <c r="E10" s="4">
+        <v>100</v>
+      </c>
+      <c r="F10" s="5">
+        <f>D10/E10</f>
+        <v>0.97499999999999998</v>
+      </c>
+      <c r="G10">
+        <v>0.25</v>
+      </c>
+      <c r="H10" s="12">
+        <f>F10*G10</f>
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="I10" s="12">
+        <f>H10</f>
+        <v>0.24374999999999999</v>
+      </c>
+      <c r="J10">
+        <v>0.25</v>
+      </c>
+      <c r="L10" s="10"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>45015</v>
+      </c>
+      <c r="B12" s="11">
+        <v>45029</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="4">
+        <v>55.5</v>
+      </c>
+      <c r="E12" s="4">
+        <v>60</v>
+      </c>
+      <c r="F12" s="5">
+        <f>D12/E12</f>
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="G12">
+        <v>0.15</v>
+      </c>
+      <c r="H12">
+        <f>F12*G12</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="L12" t="s">
+        <v>21</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="N12" t="s">
+        <v>25</v>
+      </c>
+      <c r="O12" t="s">
+        <v>26</v>
+      </c>
+      <c r="P12" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A13" s="8">
+        <v>45039</v>
+      </c>
+      <c r="B13" s="8">
+        <v>45051</v>
+      </c>
+      <c r="C13" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G13">
+        <v>0.15</v>
+      </c>
+      <c r="I13">
+        <f>H12+H13</f>
+        <v>0.13875000000000001</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0.15</v>
+      </c>
+      <c r="L13" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A14" s="8"/>
+      <c r="B14" s="8"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G15" s="3">
+        <v>0.3</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>100</v>
+      </c>
+      <c r="G17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0.1</v>
+      </c>
+      <c r="I17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0.1</v>
+      </c>
+      <c r="L17" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="G20" s="3">
+        <v>1</v>
+      </c>
+      <c r="H20" s="1">
+        <v>1</v>
+      </c>
+      <c r="I20" s="13">
+        <f>SUM(I2:I19)</f>
+        <v>0.8376376716511521</v>
+      </c>
+      <c r="J20" s="13">
+        <f>SUM(J3:J19)</f>
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A23" s="8"/>
+      <c r="B23" s="8"/>
+      <c r="D23" s="2"/>
+      <c r="E23" s="10"/>
+      <c r="L23" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="E24" s="10"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K25" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="K27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5731E5A4-4C2E-EC43-B747-67AC75025145}">
   <dimension ref="A2:P27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="166" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="166" workbookViewId="0">
       <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
